--- a/biology/Médecine/Prix_Ho-Am_de_médecine/Prix_Ho-Am_de_médecine.xlsx
+++ b/biology/Médecine/Prix_Ho-Am_de_médecine/Prix_Ho-Am_de_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Ho-Am_de_m%C3%A9decine</t>
+          <t>Prix_Ho-Am_de_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Ho-Am en médecine a été créé en 1990 par Kun-Hee Lee, le président de Samsung, en l'honneur de l'ancien président, Byung-chull Lee, le fondateur de cette société[1]. Le prix Ho-Am en médecine est l'un des six prix décernés annuellement, couvrant les cinq catégories de sciences, ingénierie, médecine, arts et service communautaire, plus un prix spécial, nommé d'après le sobriquet du défunt président, Ho-Am. Le prix Ho-Am en médecine est décerné chaque année, avec les autres prix, à des personnes d'origine coréenne qui ont contribué au bien-être de l'humanité grâce à des réalisations remarquables dans le domaine de la médecine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Ho-Am en médecine a été créé en 1990 par Kun-Hee Lee, le président de Samsung, en l'honneur de l'ancien président, Byung-chull Lee, le fondateur de cette société. Le prix Ho-Am en médecine est l'un des six prix décernés annuellement, couvrant les cinq catégories de sciences, ingénierie, médecine, arts et service communautaire, plus un prix spécial, nommé d'après le sobriquet du défunt président, Ho-Am. Le prix Ho-Am en médecine est décerné chaque année, avec les autres prix, à des personnes d'origine coréenne qui ont contribué au bien-être de l'humanité grâce à des réalisations remarquables dans le domaine de la médecine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Ho-Am_de_m%C3%A9decine</t>
+          <t>Prix_Ho-Am_de_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Récipiendaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1991: Young-Kyoon Kim
 1992: Ho-Wang Lee
@@ -530,7 +544,7 @@
 2005: Kyu-Won Kim
 2006: Yongwon Choi
 2007: Charles D. Surh
-2008: Charles Lee[2]
+2008: Charles Lee
 2009: V. Narry Kim
 2010: William C. Hahn
 2011: Augustine M.K. Choi
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_Ho-Am_de_m%C3%A9decine</t>
+          <t>Prix_Ho-Am_de_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +581,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ho-Am Foundation
 </t>
